--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,78</t>
+          <t>10,44; 14,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,75</t>
+          <t>10,0; 14,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,21</t>
+          <t>23,28; 29,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,67</t>
+          <t>22,0; 26,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,25</t>
+          <t>18,79; 24,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 47,06</t>
+          <t>40,92; 46,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 20,83</t>
+          <t>17,52; 20,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 19,42</t>
+          <t>15,52; 19,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 39,41</t>
+          <t>34,9; 39,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,96</t>
+          <t>3,92; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,37</t>
+          <t>4,27; 6,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,08</t>
+          <t>10,05; 13,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,85</t>
+          <t>10,43; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,19</t>
+          <t>9,13; 12,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,16</t>
+          <t>17,78; 23,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,23</t>
+          <t>7,43; 9,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,75</t>
+          <t>7,03; 8,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 17,75</t>
+          <t>14,98; 17,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,22</t>
+          <t>1,22; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>2,8; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,14</t>
+          <t>5,98; 10,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,88</t>
+          <t>7,26; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,72</t>
+          <t>5,21; 9,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,73</t>
+          <t>17,23; 22,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,9</t>
+          <t>4,49; 7,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,76</t>
+          <t>4,46; 7,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,0</t>
+          <t>12,43; 16,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,55</t>
+          <t>5,76; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,66</t>
+          <t>5,93; 7,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,45</t>
+          <t>12,01; 14,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,51</t>
+          <t>15,05; 17,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,36</t>
+          <t>11,99; 14,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,25; 27,39</t>
+          <t>23,08; 27,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,84; 12,38</t>
+          <t>10,8; 12,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 10,74</t>
+          <t>9,23; 10,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,72; 20,98</t>
+          <t>18,74; 20,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,58</t>
+          <t>10,44; 14,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,82</t>
+          <t>9,99; 14,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 26,71</t>
+          <t>21,96; 26,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,24</t>
+          <t>18,78; 24,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,91</t>
+          <t>17,69; 20,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,27</t>
+          <t>15,57; 19,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,95</t>
+          <t>4,0; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,46</t>
+          <t>4,21; 6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 13,83</t>
+          <t>10,49; 13,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,05</t>
+          <t>9,19; 11,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 9,38</t>
+          <t>7,41; 9,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,76</t>
+          <t>6,92; 8,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,36</t>
+          <t>1,09; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,62</t>
+          <t>2,86; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,07</t>
+          <t>7,19; 13,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,76</t>
+          <t>5,14; 9,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,82</t>
+          <t>4,46; 7,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,55</t>
+          <t>4,56; 7,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,53</t>
+          <t>5,83; 7,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 7,66</t>
+          <t>5,87; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,05; 17,63</t>
+          <t>15,0; 17,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,99; 14,46</t>
+          <t>11,93; 14,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,41</t>
+          <t>10,78; 12,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 10,69</t>
+          <t>9,17; 10,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,67</t>
+          <t>10,3; 14,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,9</t>
+          <t>10,02; 14,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 29,78</t>
+          <t>23,07; 30,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,96; 26,77</t>
+          <t>22,07; 26,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 24,27</t>
+          <t>18,43; 24,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,92; 46,77</t>
+          <t>41,28; 47,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 20,99</t>
+          <t>17,54; 20,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 19,33</t>
+          <t>15,69; 19,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,9; 39,48</t>
+          <t>34,75; 39,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,01</t>
+          <t>4,01; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,34</t>
+          <t>4,37; 6,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 13,2</t>
+          <t>10,0; 13,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,66</t>
+          <t>10,53; 13,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,88</t>
+          <t>9,16; 12,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,78; 23,2</t>
+          <t>17,59; 23,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,21</t>
+          <t>7,39; 9,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,81</t>
+          <t>7,01; 8,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 17,82</t>
+          <t>14,95; 17,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,0</t>
+          <t>1,23; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,88</t>
+          <t>2,95; 7,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,34</t>
+          <t>6,02; 10,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,12</t>
+          <t>6,88; 12,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,57</t>
+          <t>5,08; 9,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 22,71</t>
+          <t>17,28; 22,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,86</t>
+          <t>4,48; 7,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,56</t>
+          <t>4,6; 7,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,05</t>
+          <t>12,24; 16,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,68</t>
+          <t>5,84; 7,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,6</t>
+          <t>5,86; 7,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,47</t>
+          <t>12,0; 14,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,0; 17,63</t>
+          <t>15,12; 17,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,93; 14,36</t>
+          <t>11,96; 14,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 27,41</t>
+          <t>23,25; 27,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 12,33</t>
+          <t>10,84; 12,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,17; 10,69</t>
+          <t>9,21; 10,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 20,94</t>
+          <t>18,72; 20,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,52</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,24</t>
+          <t>19,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,36</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,91</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,21</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>37,08</t>
+          <t>17,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,78</t>
+          <t>-3,49; 3,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,75</t>
+          <t>9,66; 17,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,21</t>
+          <t>-7,06; 0,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,67</t>
+          <t>15,87; 23,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,25</t>
+          <t>-4,27; 0,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 47,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>17,54; 20,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,69; 19,42</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>34,75; 39,41</t>
+          <t>14,52; 20,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>110,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>89,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,2; 29,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,13; 162,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,59; 2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,84; 103,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; 4,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>71,83; 113,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,22</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,5</t>
+          <t>6,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,96</t>
+          <t>-1,26; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,37</t>
+          <t>2,22; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,08</t>
+          <t>-3,52; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,85</t>
+          <t>1,25; 10,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,19</t>
+          <t>-1,86; 0,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 9,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 8,75</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>14,95; 17,75</t>
+          <t>3,48; 8,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>112,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>81,26%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 41,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,37; 179,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,99; 4,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,85; 94,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; 11,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>42,24; 111,8</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>14,0</t>
+          <t>7,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,22</t>
+          <t>0,04; 4,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>3,17; 8,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,14</t>
+          <t>-6,38; 1,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,88</t>
+          <t>5,8; 13,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,72</t>
+          <t>-2,09; 2,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,73</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 7,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 7,76</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 16,0</t>
+          <t>5,4; 10,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>101,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>243,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>101,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>133,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 365,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,27; 651,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,42; 14,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,89; 188,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,02; 47,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>68,25; 209,65</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,93</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>11,58</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19,97</t>
+          <t>7,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,55</t>
+          <t>-1,15; 1,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,66</t>
+          <t>3,0; 7,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,45</t>
+          <t>-5,0; -1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,51</t>
+          <t>3,62; 10,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,36</t>
+          <t>-2,77; -0,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,25; 27,39</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 12,38</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 10,74</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>18,72; 20,98</t>
+          <t>4,3; 8,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>60,72%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 21,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,84; 117,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,8; -9,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 69,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,61; -5,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>36,36; 77,43</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1222,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/DCD-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,26</t>
+          <t>-3,32; 3,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 17,84</t>
+          <t>9,66; 17,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 0,53</t>
+          <t>-6,49; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 23,34</t>
+          <t>15,43; 23,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,77</t>
+          <t>-4,19; 0,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 20,31</t>
+          <t>14,44; 19,88</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 29,51</t>
+          <t>-24,19; 29,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,13; 162,77</t>
+          <t>71,29; 163,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 2,77</t>
+          <t>-25,39; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,84; 103,65</t>
+          <t>59,32; 102,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 4,09</t>
+          <t>-20,68; 3,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 113,13</t>
+          <t>70,45; 110,27</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,8</t>
+          <t>-1,1; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,62</t>
+          <t>2,4; 7,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,52</t>
+          <t>-3,82; 0,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,54</t>
+          <t>1,78; 10,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,82</t>
+          <t>-1,64; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,71</t>
+          <t>3,21; 8,77</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 41,53</t>
+          <t>-20,2; 42,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,37; 179,6</t>
+          <t>48,47; 181,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 4,6</t>
+          <t>-29,06; 5,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 94,07</t>
+          <t>17,79; 95,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 11,08</t>
+          <t>-18,48; 12,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 111,8</t>
+          <t>43,13; 111,84</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,9</t>
+          <t>-0,0; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,26</t>
+          <t>3,06; 8,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 1,07</t>
+          <t>-6,78; 0,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,94</t>
+          <t>5,84; 13,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,3</t>
+          <t>-2,35; 2,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,43</t>
+          <t>5,28; 10,3</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 365,23</t>
+          <t>-8,61; 345,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,27; 651,11</t>
+          <t>81,31; 588,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 14,82</t>
+          <t>-53,99; 13,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,89; 188,27</t>
+          <t>45,11; 180,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 47,89</t>
+          <t>-32,74; 49,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,25; 209,65</t>
+          <t>67,76; 214,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,28</t>
+          <t>-1,09; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,31</t>
+          <t>3,03; 7,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -1,42</t>
+          <t>-4,99; -1,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,85</t>
+          <t>3,3; 10,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,62</t>
+          <t>-2,8; -0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,67</t>
+          <t>4,48; 8,6</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 21,01</t>
+          <t>-15,15; 21,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,84; 117,76</t>
+          <t>44,51; 119,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,8; -9,27</t>
+          <t>-28,95; -9,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,85; 69,46</t>
+          <t>20,93; 67,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -5,47</t>
+          <t>-22,67; -4,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,36; 77,43</t>
+          <t>38,21; 77,49</t>
         </is>
       </c>
     </row>
